--- a/pred_ohlcv/54_21/2019-10-29 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 PAY ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1012980.179714002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>971729.672414002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>953424.729514002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1051511.622522335</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>937617.0283223352</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>937617.0283223352</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1126675.216422335</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>920047.2653223353</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>871254.7331223354</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>871254.7331223354</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>855725.9150223354</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>857349.0228654726</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>857282.0228654726</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>826379.9474654726</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>832255.6112654726</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>333847.0018580071</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>333847.0018580071</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>301787.4901580071</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>305290.9796580071</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>303380.9590580071</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>302492.5290580071</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>302502.5290580071</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>302112.5290580071</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>298910.2699580071</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>304442.2699580071</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>308496.3278580071</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>308506.3278580071</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>308863.0108580071</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>309263.0108580071</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>312457.2016580071</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>312457.2016580071</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>304754.2016580071</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>306354.2016580071</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>305642.1078580071</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>295445.8894580071</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>295505.7394580071</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>295505.7394580071</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>279350.9927580071</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 PAY ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1012980.179714002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>971729.672414002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>953424.729514002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1126675.216422335</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1126675.216422335</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1126675.216422335</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>920047.2653223353</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>871254.7331223354</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>871254.7331223354</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>855725.9150223354</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>857349.0228654726</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>857282.0228654726</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>826379.9474654726</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>832255.6112654726</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>333847.0018580071</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>335023.4640580071</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>305290.9796580071</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>303380.9590580071</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>302502.5290580071</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>302112.5290580071</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>298790.2699580071</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>298890.2699580071</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>298910.2699580071</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>304442.2699580071</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>302822.3896580071</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>302822.3896580071</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>307887.6485580071</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>311547.1056580071</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>309107.6484580071</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>311160.1843580071</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>311160.1843580071</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>311160.1843580071</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>312272.1584580071</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>309578.0008580071</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>309578.0008580071</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>308892.3278580071</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>308496.3278580071</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>308506.3278580071</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>308863.0108580071</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>309263.0108580071</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>312457.2016580071</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>312457.2016580071</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>304754.2016580071</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>306354.2016580071</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>305642.1078580071</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>295445.8894580071</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>295505.7394580071</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>295505.7394580071</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>279350.9927580071</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
